--- a/aircraft/reports/sightings-over-time-yearly.xlsx
+++ b/aircraft/reports/sightings-over-time-yearly.xlsx
@@ -498,7 +498,7 @@
         <v>2025</v>
       </c>
       <c r="B8" t="n">
-        <v>2075</v>
+        <v>2082</v>
       </c>
     </row>
   </sheetData>
